--- a/src/test/resources/spike/ExampleTestData.xlsx
+++ b/src/test/resources/spike/ExampleTestData.xlsx
@@ -8,13 +8,13 @@
   <sheets>
     <sheet name="Constructors" r:id="rId3" sheetId="1"/>
     <sheet name="getToString" r:id="rId4" sheetId="2"/>
-    <sheet name="getM1Boolean" r:id="rId5" sheetId="3"/>
+    <sheet name="getM1boolean" r:id="rId5" sheetId="3"/>
     <sheet name="getM1String" r:id="rId6" sheetId="4"/>
-    <sheet name="getM1IntInt" r:id="rId7" sheetId="5"/>
-    <sheet name="getM1Float" r:id="rId8" sheetId="6"/>
-    <sheet name="getM1Double" r:id="rId9" sheetId="7"/>
+    <sheet name="getM1intint" r:id="rId7" sheetId="5"/>
+    <sheet name="getM1float" r:id="rId8" sheetId="6"/>
+    <sheet name="getM1double" r:id="rId9" sheetId="7"/>
     <sheet name="getM1" r:id="rId10" sheetId="8"/>
-    <sheet name="getM1Int" r:id="rId11" sheetId="9"/>
+    <sheet name="getM1int" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
@@ -37,10 +37,10 @@
     <t>getToStringResult</t>
   </si>
   <si>
-    <t>getM1BooleanParameter0</t>
-  </si>
-  <si>
-    <t>getM1BooleanResult</t>
+    <t>getM1booleanParameter0</t>
+  </si>
+  <si>
+    <t>getM1booleanResult</t>
   </si>
   <si>
     <t>getM1StringParameter0</t>
@@ -49,34 +49,34 @@
     <t>getM1StringResult</t>
   </si>
   <si>
-    <t>getM1IntIntParameter0</t>
-  </si>
-  <si>
-    <t>getM1IntIntParameter1</t>
-  </si>
-  <si>
-    <t>getM1IntIntResult</t>
-  </si>
-  <si>
-    <t>getM1FloatParameter0</t>
-  </si>
-  <si>
-    <t>getM1FloatResult</t>
-  </si>
-  <si>
-    <t>getM1DoubleParameter0</t>
-  </si>
-  <si>
-    <t>getM1DoubleResult</t>
+    <t>getM1intintParameter0</t>
+  </si>
+  <si>
+    <t>getM1intintParameter1</t>
+  </si>
+  <si>
+    <t>getM1intintResult</t>
+  </si>
+  <si>
+    <t>getM1floatParameter0</t>
+  </si>
+  <si>
+    <t>getM1floatResult</t>
+  </si>
+  <si>
+    <t>getM1doubleParameter0</t>
+  </si>
+  <si>
+    <t>getM1doubleResult</t>
   </si>
   <si>
     <t>getM1Result</t>
   </si>
   <si>
-    <t>getM1IntParameter0</t>
-  </si>
-  <si>
-    <t>getM1IntResult</t>
+    <t>getM1intParameter0</t>
+  </si>
+  <si>
+    <t>getM1intResult</t>
   </si>
 </sst>
 </file>
